--- a/data/inputs.xlsx
+++ b/data/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slavist29\Desktop\GSG\experiments\grascom\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E77A0F9A-6AA0-44E7-A1B6-1E78698C7ADE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F10609-E73E-436A-83D7-968D03AAB9FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{982DB5AD-D5CE-475B-9DE5-8B00F80E3BAE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{982DB5AD-D5CE-475B-9DE5-8B00F80E3BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>input</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>aa</t>
+  </si>
+  <si>
+    <t>bh</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>dh</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -418,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E7B83F-BADC-4478-B399-62E5072CA6CF}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D11" sqref="D11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -466,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -486,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -506,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -526,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -544,6 +562,164 @@
       </c>
       <c r="F6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.75</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.75</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.75</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/inputs.xlsx
+++ b/data/inputs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slavist29\Desktop\GSG\experiments\grascom\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F10609-E73E-436A-83D7-968D03AAB9FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC19B7FC-D48F-402E-952C-C636A70028B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{982DB5AD-D5CE-475B-9DE5-8B00F80E3BAE}"/>
+    <workbookView xWindow="-24465" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{982DB5AD-D5CE-475B-9DE5-8B00F80E3BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>input</t>
   </si>
@@ -85,6 +86,18 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
   </si>
 </sst>
 </file>
@@ -438,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E7B83F-BADC-4478-B399-62E5072CA6CF}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:H11"/>
     </sheetView>
   </sheetViews>
@@ -725,4 +738,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67253DBC-AB79-4D95-847C-51C656AC30F3}">
+  <dimension ref="A2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="B3:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-0.5</v>
+      </c>
+      <c r="E3">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>-0.5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>-0.5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>